--- a/CH-055 Warehouse Management.xlsx
+++ b/CH-055 Warehouse Management.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E557C14F-959E-4EDF-934A-E013FC56FF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27ACA8C-A84C-45F5-8806-F1BB76DC237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="MyFirstWack" sheetId="2" r:id="rId2"/>
+    <sheet name="Alternate" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Alternate!$B$2:$E$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MyFirstWack!$H$3:$I$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$H$3:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$E$19</definedName>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
   <si>
     <t>Result</t>
   </si>
@@ -74,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +139,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +180,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -369,8 +415,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -474,8 +522,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Intro_Hd" xfId="2" xr:uid="{9EC2CC4D-A0B5-4F72-80C1-FD5AC0757E0D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{80E8FB83-45E4-4E92-BDA6-2463B9B55C46}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1129,12 +1179,39 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{FE348D69-D62C-4977-BB3D-C123DB230101}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.3.0.0" store="WA200003696" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -1548,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B3129E-AB4A-4761-A90B-3C130039CE03}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -1952,4 +2029,525 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0E197A-3FDB-417B-9D98-1DD72085D2B3}">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="12" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="20" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.19921875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="16.09765625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="H1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="16">
+        <v>2022</v>
+      </c>
+      <c r="J2" s="16">
+        <v>2023</v>
+      </c>
+      <c r="K2" s="17">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="22">
+        <v>44708</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="24">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="12">
+        <v>44780</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="20">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="12">
+        <v>44812</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="20">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="12">
+        <v>44853</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="12">
+        <v>44917</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="12">
+        <v>44938</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="12">
+        <v>44991</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="20">
+        <v>7</v>
+      </c>
+      <c r="H9" s="14" t="str" cm="1">
+        <f t="array" ref="H9:K12">_xlfn.LET(_xlpm.T,B3:E19,_xlpm.Y,YEAR(_xlfn.TAKE(_xlpm.T,,1)),_xlpm.O,_xlfn.CHOOSECOLS(_xlpm.T,2),_xlpm.P,_xlfn.CHOOSECOLS(_xlpm.T,3),_xlpm.Q,_xlfn.TAKE(_xlpm.T,,-1),_xlpm.UO,_xlfn.UNIQUE(_xlpm.O),_xlpm.QS,_xlfn.MAP(_xlpm.UO,_xlfn.LAMBDA(_xlpm.A,SUM(_xlfn._xlws.FILTER(_xlpm.Q,_xlpm.O=_xlpm.A)))),_xlpm.PY,_xlfn.MAP(_xlpm.UO,_xlfn.LAMBDA(_xlpm.A,_xlfn.TAKE((_xlfn._xlws.FILTER(_xlpm.P&amp;_xlpm.Y,_xlpm.O=_xlpm.A)),1))),_xlpm.UPY,_xlfn.UNIQUE(_xlpm.PY),_xlpm.UC,_xlfn.MAP(_xlpm.UPY,_xlfn.LAMBDA(_xlpm.A,SUM(_xlfn._xlws.FILTER(_xlpm.QS,_xlpm.PY=_xlpm.A)))),_xlpm.TUY,TRANSPOSE(_xlfn.UNIQUE(_xlpm.Y)),_xlpm.USP,_xlfn.UNIQUE(_xlfn._xlws.SORT(_xlpm.P)),_xlpm.X,_xlfn.XLOOKUP(_xlpm.USP&amp;_xlpm.TUY,_xlpm.UPY,_xlpm.UC,0),_xlfn.VSTACK(_xlfn.HSTACK("Product",_xlpm.TUY),_xlfn.HSTACK(_xlpm.USP,IF(_xlpm.X=0,"",_xlpm.X))))</f>
+        <v>Product</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="25">
+        <v>45102</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="27">
+        <v>-2</v>
+      </c>
+      <c r="H10" s="14" t="str">
+        <v>A</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="12">
+        <v>45105</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20">
+        <v>-3</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <v>B</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J11" s="3" t="str">
+        <v/>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="12">
+        <v>45139</v>
+      </c>
+      <c r="C12" s="9">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <v>C</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="25">
+        <v>45183</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="12">
+        <v>45489</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="12">
+        <v>45545</v>
+      </c>
+      <c r="C15" s="9">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="20">
+        <v>-2</v>
+      </c>
+      <c r="H15" s="3" t="str" cm="1">
+        <f t="array" ref="H15:K18">_xlfn.LET(
+_xlpm.T,B3:E19,
+_xlpm.Y,YEAR(_xlfn.TAKE(_xlpm.T,,1)),
+_xlpm.O,_xlfn.CHOOSECOLS(_xlpm.T,2),
+_xlpm.P,_xlfn.CHOOSECOLS(_xlpm.T,3),
+_xlpm.Q,_xlfn.TAKE(_xlpm.T,,-1),
+_xlpm.UO,_xlfn.UNIQUE(_xlpm.O),
+_xlpm.QS,_xlfn.MAP(_xlpm.UO,_xlfn.LAMBDA(_xlpm.A,SUM(_xlfn._xlws.FILTER(_xlpm.Q,_xlpm.O=_xlpm.A)))),
+_xlpm.PY,_xlfn.MAP(_xlpm.UO,_xlfn.LAMBDA(_xlpm.A,_xlfn.TAKE((_xlfn._xlws.FILTER(_xlpm.P&amp;_xlpm.Y,_xlpm.O=_xlpm.A)),1))),
+_xlpm.UPY,_xlfn.UNIQUE(_xlpm.PY),
+_xlpm.UC,_xlfn.MAP(_xlpm.UPY,_xlfn.LAMBDA(_xlpm.A,SUM(_xlfn._xlws.FILTER(_xlpm.QS,_xlpm.PY=_xlpm.A)))),
+_xlpm.TUY,TRANSPOSE(_xlfn.UNIQUE(_xlpm.Y)),
+_xlpm.USP,_xlfn.UNIQUE(_xlfn._xlws.SORT(_xlpm.P)),
+_xlpm.X,_xlfn.XLOOKUP(_xlpm.USP&amp;_xlpm.TUY,_xlpm.UPY,_xlpm.UC,0),
+_xlfn.VSTACK(_xlfn.HSTACK("Product",_xlpm.TUY),_xlfn.HSTACK(_xlpm.USP,IF(_xlpm.X=0,"",_xlpm.X)))
+)</f>
+        <v>Product</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2022</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2023</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="25">
+        <v>45569</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="27">
+        <v>-2</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <v>A</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J16" s="3">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="12">
+        <v>45574</v>
+      </c>
+      <c r="C17" s="9">
+        <v>6</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="20">
+        <v>-3</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <v>B</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J17" s="3" t="str">
+        <v/>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="30">
+        <v>45585</v>
+      </c>
+      <c r="C18" s="31">
+        <v>8</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <v>C</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="13">
+        <v>45648</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-055 Warehouse Management.xlsx
+++ b/CH-055 Warehouse Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27ACA8C-A84C-45F5-8806-F1BB76DC237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C212A8B-367B-4F3E-B56C-24918454F912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>Result</t>
   </si>
@@ -93,6 +93,39 @@
   </si>
   <si>
     <t>Question Tables: Warehous</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
+    <t>B2022</t>
+  </si>
+  <si>
+    <t>C2022</t>
+  </si>
+  <si>
+    <t>A2022</t>
+  </si>
+  <si>
+    <t>A2023</t>
+  </si>
+  <si>
+    <t>C2023</t>
+  </si>
+  <si>
+    <t>B2024</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>UPY</t>
+  </si>
+  <si>
+    <t>UO</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1214,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="976" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="914" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1197,6 +1230,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1210,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" activeCellId="4" sqref="E3 E10 E13 E16 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2036,7 +2072,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E19" sqref="B1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -2214,7 +2250,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="12">
         <v>44991</v>
@@ -2352,6 +2388,21 @@
       <c r="E14" s="20">
         <v>-1</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2367,8 +2418,11 @@
       <c r="E15" s="20">
         <v>-2</v>
       </c>
-      <c r="H15" s="3" t="str" cm="1">
-        <f t="array" ref="H15:K18">_xlfn.LET(
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3" cm="1">
+        <f t="array" ref="H15:H22">_xlfn.LET(
 _xlpm.T,B3:E19,
 _xlpm.Y,YEAR(_xlfn.TAKE(_xlpm.T,,1)),
 _xlpm.O,_xlfn.CHOOSECOLS(_xlpm.T,2),
@@ -2382,18 +2436,21 @@
 _xlpm.TUY,TRANSPOSE(_xlfn.UNIQUE(_xlpm.Y)),
 _xlpm.USP,_xlfn.UNIQUE(_xlfn._xlws.SORT(_xlpm.P)),
 _xlpm.X,_xlfn.XLOOKUP(_xlpm.USP&amp;_xlpm.TUY,_xlpm.UPY,_xlpm.UC,0),
-_xlfn.VSTACK(_xlfn.HSTACK("Product",_xlpm.TUY),_xlfn.HSTACK(_xlpm.USP,IF(_xlpm.X=0,"",_xlpm.X)))
+_xlpm.UO
 )</f>
-        <v>Product</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2022</v>
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J15" s="3">
-        <v>2023</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>2024</v>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
@@ -2410,20 +2467,26 @@
       <c r="E16" s="27">
         <v>-2</v>
       </c>
-      <c r="H16" s="3" t="str">
-        <v>A</v>
-      </c>
-      <c r="I16" s="3" t="str">
-        <v/>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
-      </c>
-      <c r="K16" s="3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="K16" s="3">
+        <v>7</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="12">
         <v>45574</v>
@@ -2437,20 +2500,26 @@
       <c r="E17" s="20">
         <v>-3</v>
       </c>
-      <c r="H17" s="3" t="str">
-        <v>B</v>
-      </c>
-      <c r="I17" s="3" t="str">
-        <v/>
-      </c>
-      <c r="J17" s="3" t="str">
-        <v/>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="30">
         <v>45585</v>
@@ -2464,20 +2533,26 @@
       <c r="E18" s="32">
         <v>1</v>
       </c>
-      <c r="H18" s="3" t="str">
-        <v>C</v>
-      </c>
-      <c r="I18" s="3">
-        <v>7</v>
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" s="3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="13">
         <v>45648</v>
@@ -2491,55 +2566,115 @@
       <c r="E19" s="21">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H21" s="3">
+        <v>7</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H22" s="3">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
     </row>
   </sheetData>
